--- a/EvaluationTest/Peer Review Document.xlsx
+++ b/EvaluationTest/Peer Review Document.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Final sem Project\Test Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\TeamRocket\EvaluationTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8612FCE0-8A07-4D2F-8044-A1790D0A497B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F81C74-85E5-49A0-B185-38D2BA1FC499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E570B541-CF6B-4235-9F97-2B39D1C5DC5E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Project Name</t>
   </si>
@@ -85,6 +85,66 @@
   </si>
   <si>
     <t>Suggested Changes</t>
+  </si>
+  <si>
+    <t>There were 2 of Confirmed Cases in Ireland on 2020-03-03</t>
+  </si>
+  <si>
+    <t>4- Get Country Data Intent</t>
+  </si>
+  <si>
+    <t>7- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>There were 5474 of Active Cases in Ireland on 2020-04-07</t>
+  </si>
+  <si>
+    <t>8- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>9- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>10- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>There were 1683 of Death Cases in Ireland on 2020-06-08</t>
+  </si>
+  <si>
+    <t>11- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>The message is displayed but the number is 1683</t>
+  </si>
+  <si>
+    <t>The message is displayed but the number is 21060</t>
+  </si>
+  <si>
+    <t>12- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>13- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>14- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>The message is displayed but the number is 1024</t>
+  </si>
+  <si>
+    <t>15- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>There were 426 of active Cases in ireland on 2020-07-06</t>
+  </si>
+  <si>
+    <t>19- Asking for Covid Statistics</t>
+  </si>
+  <si>
+    <t>20- Asking for Covid Statistics</t>
   </si>
 </sst>
 </file>
@@ -135,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -147,6 +207,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D6DADE-5643-452E-A676-8DCA6AE7A609}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +617,420 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7">
+        <v>44047</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
